--- a/examples/ReaderTestCorrupted6.xlsx
+++ b/examples/ReaderTestCorrupted6.xlsx
@@ -115,8 +115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA3E5126-971C-4ACD-8881-13815F37F053}" name="Table1" displayName="Table1" ref="A1:Q20" totalsRowShown="0">
-  <autoFilter ref="A1:Q20" xr:uid="{61FCCA6B-93E4-4991-A372-9E0B82ABBAB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA3E5126-971C-4ACD-8881-13815F37F053}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{61FCCA6B-93E4-4991-A372-9E0B82ABBAB2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{89FB55FE-7F68-46F1-A2DF-70567A81AB3E}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{6CC18CA0-2A99-4D61-A201-ADFDA8991D7D}" name="Column2"/>
